--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1052879.408882716</v>
+        <v>-1020809.51164875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17457145.25260921</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484448</v>
+        <v>492028.9342484444</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10005059.83375809</v>
+        <v>10012794.88940364</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>256.9369596931683</v>
+        <v>105.7607510122617</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>49.41765697589096</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.4196191663371</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>175.40668261996</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>302.8713318308988</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.5106690324492</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>172.0647531850085</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.88065422522709</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>170.4850594777219</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>85.8327461359998</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>82.62483121292166</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>224.5187688753538</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308167508</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>13.51446909090308</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1661,7 +1661,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561515</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1825,7 +1825,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>148.8597651552996</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.383853062967</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112158</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313404</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>124.4124267272057</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308167863</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>103.3456594571967</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735226729</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>103.828474294605</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432415</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T35" t="n">
         <v>201.6308445169444</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432341</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267649</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3898,25 +3898,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4135,25 +4135,25 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742933144</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1072.077256853988</v>
+        <v>141.1894994009953</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5449743356364</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D2" t="n">
-        <v>780.675593550485</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1113.68420233872</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X2" t="n">
-        <v>1098.582142958435</v>
+        <v>571.7347895458456</v>
       </c>
       <c r="Y2" t="n">
-        <v>1094.336423298492</v>
+        <v>163.448665845499</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>480.0602407069692</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>900.1131396518725</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>947.4105542393174</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>428.3837849350358</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F4" t="n">
         <v>262.5057921365585</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1537.942061378414</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V4" t="n">
-        <v>1537.942061378414</v>
+        <v>1142.930654234675</v>
       </c>
       <c r="W4" t="n">
-        <v>1265.915656964706</v>
+        <v>1093.013829006502</v>
       </c>
       <c r="X4" t="n">
-        <v>1265.915656964706</v>
+        <v>847.6220743399147</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.229172958305</v>
+        <v>620.2024036540229</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.0361114536327</v>
+        <v>1418.495312269345</v>
       </c>
       <c r="C5" t="n">
-        <v>914.93404267746</v>
+        <v>1384.393243493172</v>
       </c>
       <c r="D5" t="n">
-        <v>486.3523684147282</v>
+        <v>948.4834586676163</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>918.7491178663156</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.5706505734267</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.1728191966906</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.04266463990681</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="L5" t="n">
-        <v>1107.976466382457</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>1815.640912640689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599284</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536178</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409216</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409216</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1864.957712343043</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1864.14266179448</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1849.040602414195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.33568193854</v>
+        <v>1844.794882754252</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083434</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750441</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>858.7506050139928</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704682</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381824</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>1233.544589050298</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1233.544589050298</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.544589050298</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352341</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057713</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2350.634573355709</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2125.876321807781</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2125.876321807781</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1838.920813678211</v>
       </c>
       <c r="W7" t="n">
-        <v>1523.380649085459</v>
+        <v>1566.894409264503</v>
       </c>
       <c r="X7" t="n">
-        <v>1277.988894418872</v>
+        <v>1321.502654597915</v>
       </c>
       <c r="Y7" t="n">
-        <v>1050.56922373298</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1778.118547740317</v>
+        <v>345.1411632272193</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.976074923741</v>
+        <v>311.0390944510467</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.106694138589</v>
+        <v>279.1697136658952</v>
       </c>
       <c r="E8" t="n">
-        <v>874.3319492968844</v>
+        <v>249.4353728645945</v>
       </c>
       <c r="F8" t="n">
-        <v>446.4645197060922</v>
+        <v>225.6083473142063</v>
       </c>
       <c r="G8" t="n">
-        <v>45.06668832935607</v>
+        <v>225.6083473142063</v>
       </c>
       <c r="H8" t="n">
-        <v>45.06668832935607</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.64989895649607</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.904586409414</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1032.447085996053</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.447085996053</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>1032.447085996053</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>1032.447085996053</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1032.447085996053</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1516.842097113152</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2063.340883071747</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2232.494947824804</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2232.494947824804</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2232.494947824804</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2232.494947824804</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1869.87799775863</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1869.062947210067</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1853.960887829782</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1849.71516816984</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.8216439477889</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.3651827844312</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>349.2748939309844</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>255.1544792579381</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.7706408740997</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.38555114028361</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.64989895649607</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.71357211695367</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>395.271897083166</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>947.8143966698049</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.97794370889</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.97794370889</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.97794370889</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.97794370889</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.97794370889</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.716882340965</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.889660435305</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.434222883688</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1514.25557921429</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.919032214258</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.801514276257</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.4787600094512</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.6113242483312</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>672.125545027552</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>303.9113540449881</v>
+        <v>987.3566790731575</v>
       </c>
       <c r="C10" t="n">
-        <v>131.3496425282131</v>
+        <v>814.7949675563824</v>
       </c>
       <c r="D10" t="n">
-        <v>44.64989895649607</v>
+        <v>648.9169747579051</v>
       </c>
       <c r="E10" t="n">
-        <v>44.64989895649607</v>
+        <v>479.1589710086424</v>
       </c>
       <c r="F10" t="n">
-        <v>44.64989895649607</v>
+        <v>302.4519169703985</v>
       </c>
       <c r="G10" t="n">
-        <v>44.64989895649607</v>
+        <v>136.8606419962262</v>
       </c>
       <c r="H10" t="n">
-        <v>44.64989895649607</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>44.64989895649607</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.64989895649607</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>44.64989895649607</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.3833594257904</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>854.8672266067034</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1297.126029764348</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1716.795278990129</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2064.302172960471</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2232.494947824804</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2211.077126530176</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2051.835757828172</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1805.956311406627</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1527.523310659732</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>1240.567802530163</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W10" t="n">
-        <v>968.5413981164545</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X10" t="n">
-        <v>723.149643449867</v>
+        <v>1406.594968478036</v>
       </c>
       <c r="Y10" t="n">
-        <v>495.7299727639752</v>
+        <v>1179.175297792145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1771.449918433518</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1333.307445616941</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>897.3976607913855</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>897.3976607913854</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>469.5302312005932</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>68.13239982385706</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>68.13239982385706</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>185.1685258693958</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1019.518817827574</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1019.518817827574</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1019.518817827574</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1019.518817827574</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>1862.657265647805</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>2690.967140481201</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3237.465926439796</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192852</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376689</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249728</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2843.678587566745</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.891952339115</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2616.891952339115</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2197.749488918425</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2197.749488918425</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151498</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517921</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983454</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252991</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414607</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076446</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431467</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>418.754397950527</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156922</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949129</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.190560435738</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>974.6288489189635</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>808.7508561204862</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>638.9928523712234</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>462.2857983329795</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>296.6945233588072</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H13" t="n">
-        <v>156.7923490491817</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385706</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>154.7120849885469</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596825</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276434</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508556</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862324</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2663.374188432035</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2663.374188432035</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2417.49474201049</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2139.061741263596</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1852.106233134026</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1580.079828720318</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1566.428849840618</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1339.009179154726</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5264,13 +5264,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5288,25 +5288,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
         <v>4550.100609912873</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5355,22 +5355,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>754.219347342084</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>242.163014580405</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
         <v>463.598980006605</v>
@@ -5464,22 +5464,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376324</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651787</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.07304516795</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771579</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423625</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423625</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993931</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827328</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785922</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538979</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595854</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912871</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846697</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5592,22 +5592,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974495</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F19" t="n">
-        <v>267.8521152449519</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
         <v>463.598980006605</v>
@@ -5686,37 +5686,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.92045017358</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471577</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050032</v>
+        <v>2451.623182457409</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303137</v>
+        <v>2173.190181710514</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173568</v>
+        <v>1886.234673580945</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759859</v>
+        <v>1614.208269167236</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500649</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814757</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5920,19 +5920,19 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113134</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338915</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309257</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173589</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
         <v>2700.681281130895</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309355</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324582</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831956</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449519</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6148,46 +6148,46 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338906</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309248</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.801834709349</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
         <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.995166752589</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
         <v>1144.575496066698</v>
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2117.975449367836</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954128</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601649</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6838,19 +6838,19 @@
         <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030279</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
         <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799776</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832283</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6871,16 +6871,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C35" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I35" t="n">
         <v>97.56670367581785</v>
@@ -6962,25 +6962,25 @@
         <v>4878.335183790892</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7072,25 +7072,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936671</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080659</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716792</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463115</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850153</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.826945488266</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,7 +7111,7 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
         <v>2842.813139461497</v>
@@ -7123,13 +7123,13 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
         <v>1677.257834230404</v>
@@ -7154,13 +7154,13 @@
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7178,22 +7178,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="N38" t="n">
-        <v>2354.192791675539</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790892</v>
@@ -7202,22 +7202,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936675</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716791</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581785</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7363,7 +7363,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
         <v>1932.884531231236</v>
@@ -7372,7 +7372,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
         <v>1237.245823703677</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
@@ -7397,7 +7397,7 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7451,7 +7451,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080658</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716791</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581786</v>
@@ -7576,43 +7576,43 @@
         <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N43" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U43" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.7629969615</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7655,43 +7655,43 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>3599.279484550324</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>3599.279484550324</v>
+        <v>2523.346856428595</v>
       </c>
       <c r="O44" t="n">
-        <v>3599.279484550324</v>
+        <v>3503.526522998902</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4331.836397832298</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.29074027874</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,28 +7828,28 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8055,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102611</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.9805436479965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>558.1237369562009</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>489.2878900172718</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>558.1237369562009</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>103.1955020596815</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>354.2762226962569</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.2183091369078</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352428</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>569.0937863928452</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>405.1610403290658</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>134.472011690158</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>229.4233680290186</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>120.4463752142718</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>65.48800580459152</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.592177662716</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.5921776627242</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.281019982954604e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.34647848426539e-12</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>861689.0788068891</v>
+        <v>657424.7724935131</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>861689.0788068891</v>
+        <v>872381.6992508831</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>868551.3398894083</v>
+        <v>874160.5808645565</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662751.9199072645</v>
+        <v>883823.6213114464</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>883823.6213114462</v>
+        <v>883823.6213114464</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>883823.6213114463</v>
+        <v>883823.6213114464</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>883823.6213114469</v>
+        <v>883823.6213114464</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107229.4639780817</v>
+        <v>80872.77929248479</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,13 +26320,13 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>79014.83214187347</v>
+        <v>105371.5168274704</v>
       </c>
       <c r="F2" t="n">
         <v>105371.5168274705</v>
       </c>
       <c r="G2" t="n">
-        <v>105371.5168274705</v>
+        <v>105371.5168274704</v>
       </c>
       <c r="H2" t="n">
         <v>105371.5168274705</v>
@@ -26344,7 +26344,7 @@
         <v>107229.4639780818</v>
       </c>
       <c r="M2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780816</v>
       </c>
       <c r="N2" t="n">
         <v>107229.4639780817</v>
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.14939246222</v>
       </c>
       <c r="D3" t="n">
-        <v>41570.95418923468</v>
+        <v>10776.30320106422</v>
       </c>
       <c r="E3" t="n">
-        <v>87641.97679968638</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936865</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84042391992989e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338208</v>
       </c>
       <c r="L3" t="n">
-        <v>46859.20010535902</v>
+        <v>21768.74196143521</v>
       </c>
       <c r="M3" t="n">
-        <v>58526.69412673711</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>104487.2066667924</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>124611.1870481615</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>162797.3894436016</v>
       </c>
       <c r="D4" t="n">
-        <v>176062.9599714113</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>50991.61445743808</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933285</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933288</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.6982893329</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>73343.05610596607</v>
       </c>
       <c r="M4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="N4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213676</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="P4" t="n">
         <v>81349.24995213677</v>
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>67561.52320693701</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613136</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579247</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26509,7 +26509,7 @@
         <v>75515.61472608973</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-294215.4510653662</v>
+        <v>-245683.9551111789</v>
       </c>
       <c r="C6" t="n">
-        <v>-152024.1504056563</v>
+        <v>-195040.3400609377</v>
       </c>
       <c r="D6" t="n">
-        <v>-177965.9733895012</v>
+        <v>-134396.005037414</v>
       </c>
       <c r="E6" t="n">
-        <v>-111399.3829813824</v>
+        <v>-222725.7536280873</v>
       </c>
       <c r="F6" t="n">
-        <v>-162580.9891613413</v>
+        <v>-40370.64440703748</v>
       </c>
       <c r="G6" t="n">
-        <v>-40347.42006765486</v>
+        <v>-40370.64440703754</v>
       </c>
       <c r="H6" t="n">
-        <v>-40347.42006765507</v>
+        <v>-40370.64440703748</v>
       </c>
       <c r="I6" t="n">
-        <v>-40347.42006765482</v>
+        <v>-40370.64440703749</v>
       </c>
       <c r="J6" t="n">
-        <v>-151361.8854126451</v>
+        <v>-151385.1097520277</v>
       </c>
       <c r="K6" t="n">
-        <v>-40347.42006765484</v>
+        <v>-94038.97147041956</v>
       </c>
       <c r="L6" t="n">
-        <v>-92055.95077150401</v>
+        <v>-66965.4926275802</v>
       </c>
       <c r="M6" t="n">
-        <v>-108162.0948268819</v>
+        <v>-187213.1014379968</v>
       </c>
       <c r="N6" t="n">
-        <v>-154122.6073669372</v>
+        <v>-49635.4007001448</v>
       </c>
       <c r="O6" t="n">
+        <v>-49635.40070014478</v>
+      </c>
+      <c r="P6" t="n">
         <v>-49635.40070014479</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-49635.40070014475</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="D4" t="n">
-        <v>558.1237369562009</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982131</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,22 +27012,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="D4" t="n">
-        <v>133.8278794360966</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="E4" t="n">
-        <v>293.5312608420122</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865315</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="L4" t="n">
-        <v>133.8278794360966</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="M4" t="n">
-        <v>234.8545534049899</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865315</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179808</v>
       </c>
       <c r="L4" t="n">
-        <v>133.8278794360966</v>
+        <v>34.69176576977182</v>
       </c>
       <c r="M4" t="n">
-        <v>293.5312608420122</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865315</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>176.8240883952426</v>
+        <v>328.0002970761493</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>26.38964664823413</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>219.8884833936804</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.72585481269573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>248.1820726749244</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.3319306324443</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>20.90998292488013</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>97.24138718456288</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.1559205548316</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>115.753793533494</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>78.38646673449273</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>55.87832135360756</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.752998160663992e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,13 +28576,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.686442611841503e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5.717844883444735e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.515501176967358e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.045918907038867e-11</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>16.2357103387468</v>
       </c>
       <c r="W38" t="n">
         <v>16.23571033874737</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>262.4693064538402</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.54539097102611</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.8234408380853</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.49579817779727</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>298.4303698644312</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.9805436479965</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>558.1237369562009</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>489.2878900172718</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>558.1237369562009</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>103.1955020596815</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>354.2762226962569</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>118.2183091369078</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352428</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352428</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36051,7 +36051,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956015</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512943</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36288,7 +36288,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
-        <v>446.726063795611</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512943</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908073</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37239,13 +37239,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
         <v>186.1274021209015</v>
@@ -37546,10 +37546,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033056</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343477</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
         <v>186.1274021209015</v>
@@ -38023,22 +38023,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>81.93455261497229</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>569.0937863928452</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
